--- a/MultipleTableJoin/EAB_CO/eab_sih_parametro_homologa_IDEAM.xlsx
+++ b/MultipleTableJoin/EAB_CO/eab_sih_parametro_homologa_IDEAM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\MultipleTableJoin\EAB_CO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE09180-5E40-4609-9AA4-A598F9B30558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7385790E-15D3-40D7-BEBD-74982C889116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71BE088E-EC5C-4672-A98B-1DFB43434DE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71BE088E-EC5C-4672-A98B-1DFB43434DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Parametro" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Original EAB o homologado IDEAM</t>
+          <t>Original EAB u homologado IDEAM</t>
         </r>
       </text>
     </comment>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="346">
   <si>
     <t>AFLUENCIAS MEDIAS DIARIAS</t>
   </si>
@@ -898,12 +898,6 @@
     <t>PTPG_MX_TT_M</t>
   </si>
   <si>
-    <t>Precipitación máxima mensual en 1 hora</t>
-  </si>
-  <si>
-    <t>PTPG_MX_M</t>
-  </si>
-  <si>
     <t>Precipitación total diaria</t>
   </si>
   <si>
@@ -1003,12 +997,6 @@
     <t>RSAG_CON</t>
   </si>
   <si>
-    <t>Promedio mensual de la radiación global acumulada diaria</t>
-  </si>
-  <si>
-    <t>RSAG_MEDIA_M</t>
-  </si>
-  <si>
     <t>TEMEPERATURA</t>
   </si>
   <si>
@@ -1106,6 +1094,12 @@
   </si>
   <si>
     <t>PTPM_TT_M</t>
+  </si>
+  <si>
+    <t>PRECIPITACION MAXIMA, FECHA (no homologado IDEAM)</t>
+  </si>
+  <si>
+    <t>RADIACION SOLAR, TOTAL MENSUAL (no homologado IDEAM)</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1127,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1143,12 +1137,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,7 +1157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1486,11 +1474,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E409E4-4338-40CA-92B6-969545C3C9C6}">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2504,7 +2492,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>257</v>
       </c>
@@ -2512,19 +2500,19 @@
         <v>99</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>257</v>
       </c>
@@ -2532,13 +2520,13 @@
         <v>101</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>190</v>
@@ -2552,13 +2540,13 @@
         <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>190</v>
@@ -2572,13 +2560,13 @@
         <v>105</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>189</v>
@@ -2592,13 +2580,13 @@
         <v>107</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>190</v>
@@ -2612,13 +2600,13 @@
         <v>109</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>191</v>
@@ -2626,7 +2614,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>111</v>
@@ -2646,19 +2634,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>190</v>
@@ -2698,7 +2686,7 @@
         <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>189</v>
@@ -2718,7 +2706,7 @@
         <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>190</v>
@@ -2738,7 +2726,7 @@
         <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>189</v>
@@ -2746,19 +2734,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>191</v>
@@ -2766,19 +2754,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>190</v>
@@ -2786,7 +2774,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>127</v>
@@ -2798,7 +2786,7 @@
         <v>126</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>191</v>
@@ -2806,19 +2794,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>189</v>
@@ -2826,7 +2814,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>131</v>
@@ -2838,27 +2826,27 @@
         <v>130</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>314</v>
+        <v>133</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>190</v>
@@ -2878,7 +2866,7 @@
         <v>134</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>191</v>
@@ -2898,7 +2886,7 @@
         <v>136</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>191</v>
@@ -2918,7 +2906,7 @@
         <v>138</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>191</v>
@@ -2938,7 +2926,7 @@
         <v>140</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>189</v>
@@ -2958,7 +2946,7 @@
         <v>142</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>190</v>
@@ -2966,7 +2954,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>145</v>
@@ -2978,7 +2966,7 @@
         <v>144</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>191</v>
@@ -2986,19 +2974,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>146</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>190</v>
@@ -3006,19 +2994,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>189</v>
@@ -3026,7 +3014,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>151</v>
@@ -3038,7 +3026,7 @@
         <v>150</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>189</v>
@@ -3046,7 +3034,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>153</v>
@@ -3058,7 +3046,7 @@
         <v>152</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>190</v>
@@ -3066,7 +3054,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>155</v>
@@ -3078,7 +3066,7 @@
         <v>154</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>190</v>
@@ -3086,19 +3074,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>189</v>
@@ -3106,19 +3094,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>158</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>190</v>
@@ -3126,7 +3114,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>161</v>
@@ -3138,7 +3126,7 @@
         <v>160</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>189</v>
@@ -3146,7 +3134,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>163</v>
@@ -3158,7 +3146,7 @@
         <v>162</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>190</v>
@@ -3166,7 +3154,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>165</v>
@@ -3178,7 +3166,7 @@
         <v>164</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>189</v>
@@ -3186,7 +3174,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>167</v>
@@ -3198,7 +3186,7 @@
         <v>166</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>190</v>
@@ -3206,19 +3194,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>168</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>189</v>
@@ -3226,19 +3214,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>170</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>190</v>
@@ -3246,19 +3234,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>172</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>191</v>
@@ -3266,19 +3254,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>174</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>189</v>
@@ -3286,19 +3274,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>176</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>191</v>
@@ -3306,19 +3294,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>190</v>
@@ -3326,19 +3314,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>180</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>190</v>
@@ -3358,7 +3346,7 @@
         <v>182</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>191</v>
@@ -3378,7 +3366,7 @@
         <v>184</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>189</v>
@@ -3398,7 +3386,7 @@
         <v>186</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>190</v>

--- a/MultipleTableJoin/EAB_CO/eab_sih_parametro_homologa_IDEAM.xlsx
+++ b/MultipleTableJoin/EAB_CO/eab_sih_parametro_homologa_IDEAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\MultipleTableJoin\EAB_CO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7385790E-15D3-40D7-BEBD-74982C889116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F152E48-243A-4F83-AF5B-D97F7E17EE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71BE088E-EC5C-4672-A98B-1DFB43434DE1}"/>
   </bookViews>
@@ -1475,10 +1475,10 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A68" sqref="A68:XFD68"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="3" sqref="A1:A1048576 C1:C1048576 E1:E1048576 F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/MultipleTableJoin/EAB_CO/eab_sih_parametro_homologa_IDEAM.xlsx
+++ b/MultipleTableJoin/EAB_CO/eab_sih_parametro_homologa_IDEAM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.GISPython\MultipleTableJoin\EAB_CO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F152E48-243A-4F83-AF5B-D97F7E17EE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0AF811-FE47-4042-A692-9BC7AC19CC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71BE088E-EC5C-4672-A98B-1DFB43434DE1}"/>
   </bookViews>
@@ -1153,11 +1153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1478,7 +1477,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" activeCellId="3" sqref="A1:A1048576 C1:C1048576 E1:E1048576 F1:F1048576"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2492,43 +2491,43 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="F51" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="2" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2832,23 +2831,23 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="2" t="s">
         <v>190</v>
       </c>
     </row>
